--- a/Excel/TestStage.xlsx
+++ b/Excel/TestStage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFC2D182-2254-47CA-8BAC-7F57C348722D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB3317A-9EA3-47F4-8DA7-70416FF80560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="15900" windowHeight="15585" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <dimension ref="A1:BI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>

--- a/Excel/TestStage.xlsx
+++ b/Excel/TestStage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyake\ドキュメント\ゲーム制作用ファイル\ゲーム製作 No.4\PoorRailroadCompany\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0536CD66-EB44-4E98-9992-61628151936E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE482DBF-7A52-4A74-A6A2-CF4953E14A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="28800" windowHeight="7845" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="2304" yWindow="0" windowWidth="11544" windowHeight="12240" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,17 +130,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -206,72 +196,6 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -282,133 +206,6 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -748,15 +545,15 @@
   <dimension ref="A1:BI16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CH10" sqref="CH10"/>
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="100" width="3.125" customWidth="1"/>
+    <col min="1" max="100" width="3.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:61" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -941,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1126,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1206,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="AA3" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB3" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC3" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD3" s="2">
         <v>0</v>
@@ -1311,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1391,852 +1188,852 @@
         <v>0</v>
       </c>
       <c r="AA4" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB4" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AW4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AX4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AZ4" s="3">
+        <v>30</v>
+      </c>
+      <c r="BA4" s="3">
+        <v>30</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>30</v>
+      </c>
+      <c r="BC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2">
+        <v>11</v>
+      </c>
+      <c r="K5" s="2">
+        <v>11</v>
+      </c>
+      <c r="L5" s="2">
+        <v>10</v>
+      </c>
+      <c r="M5" s="2">
+        <v>10</v>
+      </c>
+      <c r="N5" s="2">
+        <v>10</v>
+      </c>
+      <c r="O5" s="2">
+        <v>10</v>
+      </c>
+      <c r="P5" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>10</v>
+      </c>
+      <c r="R5" s="2">
+        <v>10</v>
+      </c>
+      <c r="S5" s="2">
+        <v>10</v>
+      </c>
+      <c r="T5" s="2">
+        <v>11</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>30</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>30</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>30</v>
+      </c>
+      <c r="AW5" s="3">
+        <v>30</v>
+      </c>
+      <c r="AX5" s="3">
+        <v>30</v>
+      </c>
+      <c r="AY5" s="3">
+        <v>30</v>
+      </c>
+      <c r="AZ5" s="3">
+        <v>30</v>
+      </c>
+      <c r="BA5" s="3">
+        <v>30</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2">
+        <v>11</v>
+      </c>
+      <c r="L6" s="2">
+        <v>11</v>
+      </c>
+      <c r="M6" s="2">
+        <v>10</v>
+      </c>
+      <c r="N6" s="2">
+        <v>10</v>
+      </c>
+      <c r="O6" s="2">
+        <v>10</v>
+      </c>
+      <c r="P6" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>10</v>
+      </c>
+      <c r="R6" s="2">
+        <v>10</v>
+      </c>
+      <c r="S6" s="2">
+        <v>10</v>
+      </c>
+      <c r="T6" s="2">
+        <v>11</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
         <v>4</v>
       </c>
-      <c r="AC4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="3">
-        <v>30</v>
-      </c>
-      <c r="AS4" s="3">
-        <v>30</v>
-      </c>
-      <c r="AT4" s="3">
-        <v>30</v>
-      </c>
-      <c r="AU4" s="3">
-        <v>30</v>
-      </c>
-      <c r="AV4" s="3">
-        <v>30</v>
-      </c>
-      <c r="AW4" s="3">
-        <v>30</v>
-      </c>
-      <c r="AX4" s="3">
-        <v>30</v>
-      </c>
-      <c r="AY4" s="3">
-        <v>30</v>
-      </c>
-      <c r="AZ4" s="3">
-        <v>30</v>
-      </c>
-      <c r="BA4" s="3">
-        <v>30</v>
-      </c>
-      <c r="BB4" s="3">
-        <v>30</v>
-      </c>
-      <c r="BC4" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="2">
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="3">
+        <v>30</v>
+      </c>
+      <c r="AW6" s="3">
+        <v>30</v>
+      </c>
+      <c r="AX6" s="3">
+        <v>30</v>
+      </c>
+      <c r="AY6" s="3">
+        <v>30</v>
+      </c>
+      <c r="AZ6" s="3">
+        <v>30</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>11</v>
-      </c>
-      <c r="J5" s="2">
-        <v>11</v>
-      </c>
-      <c r="K5" s="2">
-        <v>11</v>
-      </c>
-      <c r="L5" s="2">
-        <v>10</v>
-      </c>
-      <c r="M5" s="2">
-        <v>10</v>
-      </c>
-      <c r="N5" s="2">
-        <v>10</v>
-      </c>
-      <c r="O5" s="2">
-        <v>10</v>
-      </c>
-      <c r="P5" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>10</v>
-      </c>
-      <c r="R5" s="2">
-        <v>10</v>
-      </c>
-      <c r="S5" s="2">
-        <v>10</v>
-      </c>
-      <c r="T5" s="2">
-        <v>11</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2">
-        <v>0</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="3">
-        <v>30</v>
-      </c>
-      <c r="AU5" s="3">
-        <v>30</v>
-      </c>
-      <c r="AV5" s="3">
-        <v>30</v>
-      </c>
-      <c r="AW5" s="3">
-        <v>30</v>
-      </c>
-      <c r="AX5" s="3">
-        <v>30</v>
-      </c>
-      <c r="AY5" s="3">
-        <v>30</v>
-      </c>
-      <c r="AZ5" s="3">
-        <v>30</v>
-      </c>
-      <c r="BA5" s="3">
-        <v>30</v>
-      </c>
-      <c r="BB5" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="2">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>11</v>
+      </c>
+      <c r="K7" s="2">
+        <v>11</v>
+      </c>
+      <c r="L7" s="2">
+        <v>11</v>
+      </c>
+      <c r="M7" s="2">
+        <v>10</v>
+      </c>
+      <c r="N7" s="2">
+        <v>10</v>
+      </c>
+      <c r="O7" s="2">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>10</v>
+      </c>
+      <c r="R7" s="2">
+        <v>11</v>
+      </c>
+      <c r="S7" s="2">
+        <v>11</v>
+      </c>
+      <c r="T7" s="2">
+        <v>11</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>30</v>
+      </c>
+      <c r="AY7" s="3">
+        <v>30</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>11</v>
-      </c>
-      <c r="K6" s="2">
-        <v>11</v>
-      </c>
-      <c r="L6" s="2">
-        <v>11</v>
-      </c>
-      <c r="M6" s="2">
-        <v>10</v>
-      </c>
-      <c r="N6" s="2">
-        <v>10</v>
-      </c>
-      <c r="O6" s="2">
-        <v>10</v>
-      </c>
-      <c r="P6" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>10</v>
-      </c>
-      <c r="R6" s="2">
-        <v>10</v>
-      </c>
-      <c r="S6" s="2">
-        <v>10</v>
-      </c>
-      <c r="T6" s="2">
-        <v>11</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="3">
-        <v>30</v>
-      </c>
-      <c r="AW6" s="3">
-        <v>30</v>
-      </c>
-      <c r="AX6" s="3">
-        <v>30</v>
-      </c>
-      <c r="AY6" s="3">
-        <v>30</v>
-      </c>
-      <c r="AZ6" s="3">
-        <v>30</v>
-      </c>
-      <c r="BA6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="2">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>11</v>
+      </c>
+      <c r="L8" s="2">
+        <v>11</v>
+      </c>
+      <c r="M8" s="2">
+        <v>10</v>
+      </c>
+      <c r="N8" s="2">
+        <v>10</v>
+      </c>
+      <c r="O8" s="2">
+        <v>10</v>
+      </c>
+      <c r="P8" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>11</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2">
-        <v>11</v>
-      </c>
-      <c r="L7" s="2">
-        <v>11</v>
-      </c>
-      <c r="M7" s="2">
-        <v>10</v>
-      </c>
-      <c r="N7" s="2">
-        <v>10</v>
-      </c>
-      <c r="O7" s="2">
-        <v>10</v>
-      </c>
-      <c r="P7" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>10</v>
-      </c>
-      <c r="R7" s="2">
-        <v>11</v>
-      </c>
-      <c r="S7" s="2">
-        <v>11</v>
-      </c>
-      <c r="T7" s="2">
-        <v>11</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="3">
-        <v>30</v>
-      </c>
-      <c r="AY7" s="3">
-        <v>30</v>
-      </c>
-      <c r="AZ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>11</v>
-      </c>
-      <c r="L8" s="2">
-        <v>11</v>
-      </c>
-      <c r="M8" s="2">
-        <v>10</v>
-      </c>
-      <c r="N8" s="2">
-        <v>10</v>
-      </c>
-      <c r="O8" s="2">
-        <v>10</v>
-      </c>
-      <c r="P8" s="2">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>11</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -2421,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -2606,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -2791,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -2976,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -3161,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -3346,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -3531,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -3719,29 +3516,29 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BI16">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
-      <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TestStage.xlsx
+++ b/Excel/TestStage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyake\ドキュメント\ゲーム制作用ファイル\ゲーム製作 No.4\PoorRailroadCompany\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE482DBF-7A52-4A74-A6A2-CF4953E14A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381C6588-3645-4855-ABDB-44336EADD492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="0" windowWidth="11544" windowHeight="12240" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="28695" yWindow="-9045" windowWidth="16410" windowHeight="13500" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,16 +544,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <dimension ref="A1:BI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="100" width="3.09765625" customWidth="1"/>
+    <col min="1" max="100" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:61" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
         <v>31</v>
@@ -2990,7 +2990,7 @@
         <v>31</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>31</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2">
         <v>31</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>0</v>
       </c>

--- a/Excel/TestStage.xlsx
+++ b/Excel/TestStage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381C6588-3645-4855-ABDB-44336EADD492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D585B3-39D4-4C81-A7BC-CE7D907DCB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="-9045" windowWidth="16410" windowHeight="13500" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,10 +542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -764,10 +765,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J2" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K2" s="3">
         <v>10</v>
@@ -776,10 +777,10 @@
         <v>10</v>
       </c>
       <c r="M2" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N2" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O2" s="3">
         <v>20</v>
@@ -797,13 +798,13 @@
         <v>20</v>
       </c>
       <c r="T2" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U2" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V2" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W2" s="3">
         <v>0</v>
@@ -949,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J3" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K3" s="2">
         <v>10</v>
@@ -964,10 +965,10 @@
         <v>10</v>
       </c>
       <c r="N3" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O3" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P3" s="2">
         <v>20</v>
@@ -979,13 +980,13 @@
         <v>20</v>
       </c>
       <c r="S3" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T3" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U3" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V3" s="2">
         <v>0</v>
@@ -1134,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J4" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K4" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L4" s="2">
         <v>10</v>
@@ -1149,28 +1150,28 @@
         <v>10</v>
       </c>
       <c r="N4" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O4" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P4" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R4" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S4" s="2">
         <v>10</v>
       </c>
       <c r="T4" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U4" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V4" s="2">
         <v>0</v>
@@ -1319,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J5" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K5" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L5" s="2">
         <v>10</v>
@@ -1352,7 +1353,7 @@
         <v>10</v>
       </c>
       <c r="T5" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1507,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K6" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L6" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M6" s="2">
         <v>10</v>
@@ -1537,7 +1538,7 @@
         <v>10</v>
       </c>
       <c r="T6" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
@@ -1692,13 +1693,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K7" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L7" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M7" s="2">
         <v>10</v>
@@ -1716,13 +1717,13 @@
         <v>10</v>
       </c>
       <c r="R7" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S7" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T7" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
@@ -1880,10 +1881,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L8" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M8" s="2">
         <v>10</v>
@@ -1895,10 +1896,10 @@
         <v>10</v>
       </c>
       <c r="P8" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
@@ -2068,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M9" s="2">
         <v>10</v>
@@ -2080,7 +2081,7 @@
         <v>10</v>
       </c>
       <c r="P9" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2253,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M10" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N10" s="2">
         <v>10</v>
@@ -2265,7 +2266,7 @@
         <v>10</v>
       </c>
       <c r="P10" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2441,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N11" s="2">
         <v>10</v>
@@ -2450,7 +2451,7 @@
         <v>10</v>
       </c>
       <c r="P11" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2626,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N12" s="2">
         <v>10</v>
@@ -2635,7 +2636,7 @@
         <v>10</v>
       </c>
       <c r="P12" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -2814,10 +2815,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O13" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P13" s="2">
         <v>0</v>
@@ -3532,7 +3533,7 @@
       <formula>10</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
-      <formula>11</formula>
+      <formula>13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>2</formula>

--- a/Excel/TestStage.xlsx
+++ b/Excel/TestStage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381C6588-3645-4855-ABDB-44336EADD492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58F5487-BC82-42B7-9A8A-D1E1A9001E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="-9045" windowWidth="16410" windowHeight="13500" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="28680" yWindow="-9000" windowWidth="16440" windowHeight="28320" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,103 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -545,7 +641,7 @@
   <dimension ref="A1:BI16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2035,7 +2131,7 @@
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -3516,29 +3612,32 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BI16">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TestStage.xlsx
+++ b/Excel/TestStage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3316AD3C-3C84-47B5-8AFD-69D4270DBB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71338207-EAF1-4EA9-8193-4B3AEE06925E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -158,92 +158,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -641,16 +555,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AK5" sqref="AK5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="100" width="3.125" customWidth="1"/>
+    <col min="1" max="100" width="3.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:61" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -835,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -858,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I2" s="3">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="J2" s="3">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="K2" s="3">
         <v>10</v>
@@ -1020,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1040,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="K3" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2">
         <v>10</v>
@@ -1205,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1225,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="K4" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="L4" s="2">
         <v>10</v>
@@ -1390,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1410,19 +1324,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="J5" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="K5" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="L5" s="2">
         <v>10</v>
@@ -1575,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -1598,13 +1512,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J6" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="K6" s="2">
         <v>13</v>
@@ -1760,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -1945,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -2130,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -2315,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -2500,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -2685,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -2870,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -3055,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -3240,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -3425,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -3613,31 +3527,31 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BI16">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
